--- a/OD.xlsx
+++ b/OD.xlsx
@@ -7,100 +7,237 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GMM" sheetId="1" r:id="rId1"/>
+    <sheet name="ETH" sheetId="1" r:id="rId1"/>
+    <sheet name="GAL" sheetId="2" r:id="rId2"/>
+    <sheet name="GLU" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
   <si>
     <t>file_name</t>
   </si>
   <si>
-    <t>GMMAP0250</t>
-  </si>
-  <si>
-    <t>GMMAP0251</t>
-  </si>
-  <si>
-    <t>GMMAP0252</t>
-  </si>
-  <si>
-    <t>GMMAP0253</t>
-  </si>
-  <si>
-    <t>GMMAP0254</t>
-  </si>
-  <si>
-    <t>GMMAP0255</t>
-  </si>
-  <si>
-    <t>GMMAP0256</t>
-  </si>
-  <si>
-    <t>GMMAP0257</t>
-  </si>
-  <si>
-    <t>GMMAP0258</t>
-  </si>
-  <si>
-    <t>GMMAP0260</t>
-  </si>
-  <si>
-    <t>GMMAP0261</t>
-  </si>
-  <si>
-    <t>GMMAP0262</t>
-  </si>
-  <si>
-    <t>GMMAP0263</t>
-  </si>
-  <si>
-    <t>GMMAP0264</t>
-  </si>
-  <si>
-    <t>GMMAP0265</t>
-  </si>
-  <si>
-    <t>GMMAP0266</t>
-  </si>
-  <si>
-    <t>GMMAP0267</t>
-  </si>
-  <si>
-    <t>GMMAP0268</t>
-  </si>
-  <si>
-    <t>GMMAP0360</t>
-  </si>
-  <si>
-    <t>GMMAP0361</t>
-  </si>
-  <si>
-    <t>GMMAP0362</t>
-  </si>
-  <si>
-    <t>GMMAP0363</t>
-  </si>
-  <si>
-    <t>GMMAP0364</t>
-  </si>
-  <si>
-    <t>GMMAP0365</t>
-  </si>
-  <si>
-    <t>GMMAP0366</t>
-  </si>
-  <si>
-    <t>GMMAP0367</t>
-  </si>
-  <si>
-    <t>GMMAP0368</t>
+    <t>ETHKWK11</t>
+  </si>
+  <si>
+    <t>ETHKWK12</t>
+  </si>
+  <si>
+    <t>ETHKWK13</t>
+  </si>
+  <si>
+    <t>ETHKWK14</t>
+  </si>
+  <si>
+    <t>ETHKWK15</t>
+  </si>
+  <si>
+    <t>ETHKWK16</t>
+  </si>
+  <si>
+    <t>ETHKWK17</t>
+  </si>
+  <si>
+    <t>ETHKWK21</t>
+  </si>
+  <si>
+    <t>ETHKWK22</t>
+  </si>
+  <si>
+    <t>ETHKWK23</t>
+  </si>
+  <si>
+    <t>ETHKWK24</t>
+  </si>
+  <si>
+    <t>ETHKWK25</t>
+  </si>
+  <si>
+    <t>ETHKWK26</t>
+  </si>
+  <si>
+    <t>ETHKWK27</t>
+  </si>
+  <si>
+    <t>ETHKWK31</t>
+  </si>
+  <si>
+    <t>ETHKWK32</t>
+  </si>
+  <si>
+    <t>ETHKWK33</t>
+  </si>
+  <si>
+    <t>ETHKWK34</t>
+  </si>
+  <si>
+    <t>ETHKWK35</t>
+  </si>
+  <si>
+    <t>ETHKWK36</t>
+  </si>
+  <si>
+    <t>ETHKWK37</t>
+  </si>
+  <si>
+    <t>ETHKWK10</t>
+  </si>
+  <si>
+    <t>ETHKWK20</t>
+  </si>
+  <si>
+    <t>ETHKWK30</t>
   </si>
   <si>
     <t>OD (600 nm)</t>
+  </si>
+  <si>
+    <t>GALKWK11</t>
+  </si>
+  <si>
+    <t>GALKWK12</t>
+  </si>
+  <si>
+    <t>GALKWK13</t>
+  </si>
+  <si>
+    <t>GALKWK14</t>
+  </si>
+  <si>
+    <t>GALKWK15</t>
+  </si>
+  <si>
+    <t>GALKWK16</t>
+  </si>
+  <si>
+    <t>GALKWK17</t>
+  </si>
+  <si>
+    <t>GALKWK21</t>
+  </si>
+  <si>
+    <t>GALKWK22</t>
+  </si>
+  <si>
+    <t>GALKWK23</t>
+  </si>
+  <si>
+    <t>GALKWK24</t>
+  </si>
+  <si>
+    <t>GALKWK25</t>
+  </si>
+  <si>
+    <t>GALKWK26</t>
+  </si>
+  <si>
+    <t>GALKWK27</t>
+  </si>
+  <si>
+    <t>GALKWK31</t>
+  </si>
+  <si>
+    <t>GALKWK32</t>
+  </si>
+  <si>
+    <t>GALKWK33</t>
+  </si>
+  <si>
+    <t>GALKWK34</t>
+  </si>
+  <si>
+    <t>GALKWK35</t>
+  </si>
+  <si>
+    <t>GALKWK36</t>
+  </si>
+  <si>
+    <t>GALKWK37</t>
+  </si>
+  <si>
+    <t>GALKWK10</t>
+  </si>
+  <si>
+    <t>GALKWK20</t>
+  </si>
+  <si>
+    <t>GALKWK30</t>
+  </si>
+  <si>
+    <t>GLUKWK11</t>
+  </si>
+  <si>
+    <t>GLUKWK12</t>
+  </si>
+  <si>
+    <t>GLUKWK13</t>
+  </si>
+  <si>
+    <t>GLUKWK14</t>
+  </si>
+  <si>
+    <t>GLUKWK15</t>
+  </si>
+  <si>
+    <t>GLUKWK16</t>
+  </si>
+  <si>
+    <t>GLUKWK17</t>
+  </si>
+  <si>
+    <t>GLUKWK21</t>
+  </si>
+  <si>
+    <t>GLUKWK22</t>
+  </si>
+  <si>
+    <t>GLUKWK23</t>
+  </si>
+  <si>
+    <t>GLUKWK24</t>
+  </si>
+  <si>
+    <t>GLUKWK25</t>
+  </si>
+  <si>
+    <t>GLUKWK26</t>
+  </si>
+  <si>
+    <t>GLUKWK27</t>
+  </si>
+  <si>
+    <t>GLUKWK31</t>
+  </si>
+  <si>
+    <t>GLUKWK32</t>
+  </si>
+  <si>
+    <t>GLUKWK33</t>
+  </si>
+  <si>
+    <t>GLUKWK34</t>
+  </si>
+  <si>
+    <t>GLUKWK35</t>
+  </si>
+  <si>
+    <t>GLUKWK36</t>
+  </si>
+  <si>
+    <t>GLUKWK37</t>
+  </si>
+  <si>
+    <t>GLUKWK10</t>
+  </si>
+  <si>
+    <t>GLUKWK20</t>
+  </si>
+  <si>
+    <t>GLUKWK30</t>
   </si>
 </sst>
 </file>
@@ -153,8 +290,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:A55" totalsRowShown="0">
-  <autoFilter ref="A1:A55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:A73" totalsRowShown="0">
+  <autoFilter ref="A1:A73"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="file_name" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Frame1" displayName="Frame1" ref="A1:A73" totalsRowShown="0">
+  <autoFilter ref="A1:A73"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="file_name" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Frame2" displayName="Frame2" ref="A1:A73" totalsRowShown="0">
+  <autoFilter ref="A1:A73"/>
   <tableColumns count="1">
     <tableColumn id="1" name="file_name" dataDxfId="0"/>
   </tableColumns>
@@ -447,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -464,132 +621,508 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -604,135 +1137,599 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
